--- a/text_classification_hatespeech/LlmStudio/Experiments_llmstudio.xlsx
+++ b/text_classification_hatespeech/LlmStudio/Experiments_llmstudio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/text_classification_hatespeech/LlmStudio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3247FD4D-AA8D-0B49-9396-BEF915EC2862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D01AB0-C15C-B540-9ED5-FE371841AB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35860" yWindow="1340" windowWidth="32620" windowHeight="15620" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
+    <workbookView xWindow="35860" yWindow="1120" windowWidth="32620" windowHeight="15620" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaderBoard" sheetId="32" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Experiment_Name</t>
     <phoneticPr fontId="1"/>
@@ -320,6 +320,14 @@
   </si>
   <si>
     <t>2_8</t>
+  </si>
+  <si>
+    <t>Pushed to HF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/yukismd/HateSpeechClassification-japanese-gpt-neox-3-6b-instruction-ppo</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -508,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,46 +571,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,11 +927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F115AF-A12A-6E42-B6B9-58043D25AAC8}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -956,11 +943,12 @@
     <col min="9" max="10" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" customWidth="1"/>
+    <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43" thickBot="1">
+    <row r="1" spans="1:18" ht="43" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -996,14 +984,16 @@
       <c r="M1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1039,14 +1029,16 @@
       <c r="M2" s="5">
         <v>4.2013888888888891E-3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1080,14 +1072,16 @@
       <c r="M3" s="7">
         <v>4.1898148148148146E-3</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="Q3" t="s">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1121,14 +1115,16 @@
       <c r="M4" s="7">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="Q4" t="s">
         <v>42</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1164,14 +1160,16 @@
       <c r="M5" s="9">
         <v>3.8194444444444443E-3</v>
       </c>
-      <c r="O5" t="s">
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="Q5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1208,14 +1206,20 @@
       <c r="M6" s="7">
         <v>8.611111111111111E-3</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" t="s">
         <v>48</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1252,14 +1256,16 @@
       <c r="M7" s="7">
         <v>8.6574074074074071E-3</v>
       </c>
-      <c r="O7" t="s">
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="Q7" t="s">
         <v>49</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1296,14 +1302,16 @@
       <c r="M8" s="7">
         <v>7.8819444444444449E-3</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="Q8" t="s">
         <v>50</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="21" thickBot="1">
+    <row r="9" spans="1:18" ht="21" thickBot="1">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -1341,21 +1349,23 @@
       <c r="M9" s="12">
         <v>7.8935185185185185E-3</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="Q9" t="s">
         <v>51</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="24">
+    <row r="10" spans="1:18">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="4"/>
@@ -1374,102 +1384,104 @@
       <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="4">
         <v>0.9758</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="4">
         <v>0.66666666666666596</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="26"/>
-      <c r="P10" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="R10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="19">
+    <row r="11" spans="1:18">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
+      <c r="E11">
         <v>16</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11">
         <v>128</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11">
         <v>0.98299999999999998</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11">
         <v>0.65454545454545399</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="27"/>
-      <c r="P11" t="s">
+      <c r="M11" s="19"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="R11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="19">
+    <row r="12" spans="1:18">
+      <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20">
+      <c r="E12">
         <v>32</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12">
         <v>128</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12">
         <v>1E-4</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="2">
         <v>0.97599999999999998</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12">
         <v>0.68656716417910402</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="27"/>
-      <c r="P12" t="s">
+      <c r="M12" s="19"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="R12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="22">
+    <row r="13" spans="1:18">
+      <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="1"/>
@@ -1488,140 +1500,142 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="1">
         <v>0.98029999999999995</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="1">
         <v>0.68965517241379304</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="28"/>
-      <c r="P13" t="s">
+      <c r="M13" s="20"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="R13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="19">
+    <row r="14" spans="1:18">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20">
+      <c r="E14">
         <v>16</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14">
         <v>128</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14">
         <v>1E-4</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="2">
         <v>0.98</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14">
         <v>0.677966101694915</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="27"/>
-      <c r="P14" t="s">
+      <c r="M14" s="19"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="R14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="19">
+    <row r="15" spans="1:18">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20">
+      <c r="E15">
         <v>16</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15">
         <v>128</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15">
         <v>0.55230000000000001</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="27"/>
-      <c r="P15" t="s">
+      <c r="M15" s="19"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="R15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="19">
+    <row r="16" spans="1:18">
+      <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20">
+      <c r="E16">
         <v>32</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16">
         <v>128</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16">
         <v>1E-4</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="2">
         <v>0.97950000000000004</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16">
         <v>0.68965517241379304</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="27"/>
-      <c r="P16" t="s">
+      <c r="M16" s="19"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="R16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="21" thickBot="1">
-      <c r="A17" s="29">
+    <row r="17" spans="1:18" ht="21" thickBot="1">
+      <c r="A17" s="10">
         <v>2</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="11"/>
@@ -1640,15 +1654,17 @@
       <c r="I17" s="11">
         <v>2</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="11">
         <v>0.97140000000000004</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="11">
         <v>0.7</v>
       </c>
       <c r="L17" s="11"/>
-      <c r="M17" s="31"/>
-      <c r="P17" t="s">
+      <c r="M17" s="21"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="R17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1668,6 +1684,9 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="O6" r:id="rId1" xr:uid="{22810A29-3548-9B40-AE20-D3B385F04B0D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1696,7 +1715,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
